--- a/trunk/ afgmx/AFGMX/ADMON_DEL_PROYECTO/BITACORAS/2015/CUAT_2_MAY_AGO/PARCIAL_2/BITACORA.xlsx
+++ b/trunk/ afgmx/AFGMX/ADMON_DEL_PROYECTO/BITACORAS/2015/CUAT_2_MAY_AGO/PARCIAL_2/BITACORA.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
   <si>
     <t>UNIVERSIDAD TECNOLÓGICA DEL  CENTRO DE VERACRUZ
 TECNOLOGÍAS DE LA INFORMACIÓN Y COMUNICACIÓN
@@ -219,6 +219,51 @@
   </si>
   <si>
     <t>Sitio WEB empresarial version 2</t>
+  </si>
+  <si>
+    <t>Participacion en el evento feria de las ciencias</t>
+  </si>
+  <si>
+    <t>Se participo en la feria de las ciencias ubicada en Cordoba, Veracruz</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>Juan Diego Romero Espinoza, Carlos Enrique Hernandez Jimenez y Ricardo Navarrete Crisanto</t>
+  </si>
+  <si>
+    <t>Desarrollo del modulo de cultivos en aplicación web</t>
+  </si>
+  <si>
+    <t>Se realizo el desarrollo del modulo para registrar cultivos en el proyecto AgroFinderGrounf</t>
+  </si>
+  <si>
+    <t>Modulo de ingreso de cultivos</t>
+  </si>
+  <si>
+    <t>Leonardo Luna Ruiz</t>
+  </si>
+  <si>
+    <t>Segundo dia de participacion en feria de las ciencias</t>
+  </si>
+  <si>
+    <t>Segundo dia de la feria de las ciencias donde se participo dando conferencia de las funciones de el proyecto en su primera fase</t>
+  </si>
+  <si>
+    <t>Juan Diego Romero Espinoza y Carlos Enrique Hernandez Jimenez</t>
+  </si>
+  <si>
+    <t>Continuacion del desarrollo del modulo de cultivos</t>
+  </si>
+  <si>
+    <t>Se contunio con el desarrollo del modulo para ser integrado una vez acabado y realizar las pruebas necesarias</t>
+  </si>
+  <si>
+    <t>Cierre de feria de las ciencias</t>
+  </si>
+  <si>
+    <t>Se estuvo el ultimo dia dando platicas de dos proyectos incluido AgroFinderGround, y dando por cierre la participacion en dicho evento</t>
   </si>
 </sst>
 </file>
@@ -799,7 +844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -863,6 +908,27 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -878,30 +944,9 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -910,6 +955,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1361,46 +1409,46 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="31"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="38"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="38"/>
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="31"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1423,13 +1471,13 @@
       <c r="C6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
@@ -1441,13 +1489,13 @@
       <c r="C7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
@@ -1459,13 +1507,13 @@
       <c r="C8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
@@ -1477,13 +1525,13 @@
       <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
@@ -1495,13 +1543,13 @@
       <c r="C10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="31">
         <v>1</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
@@ -1513,13 +1561,13 @@
       <c r="C11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
@@ -1545,11 +1593,11 @@
       <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -1561,13 +1609,13 @@
       <c r="C14" s="17">
         <v>1</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
@@ -1579,13 +1627,13 @@
       <c r="C15" s="17">
         <v>2</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
@@ -1597,13 +1645,13 @@
       <c r="C16" s="17">
         <v>3</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
@@ -1615,13 +1663,13 @@
       <c r="C17" s="17">
         <v>4</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
@@ -1633,11 +1681,11 @@
       <c r="C18" s="17">
         <v>5</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
@@ -1649,11 +1697,11 @@
       <c r="C19" s="17">
         <v>6</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
@@ -1675,6 +1723,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:K4"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:H9"/>
     <mergeCell ref="D16:H16"/>
     <mergeCell ref="D17:H17"/>
     <mergeCell ref="D18:H18"/>
@@ -1684,11 +1737,6 @@
     <mergeCell ref="D13:H13"/>
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="D15:H15"/>
-    <mergeCell ref="B2:K4"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1699,8 +1747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2000,75 +2048,149 @@
       <c r="J14" s="2"/>
       <c r="K14" s="11"/>
     </row>
-    <row r="15" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
+      <c r="B15" s="22">
+        <v>6</v>
+      </c>
+      <c r="C15" s="24">
+        <v>42158</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>67</v>
+      </c>
       <c r="I15" s="21"/>
       <c r="J15" s="2"/>
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
+      <c r="B16" s="22">
+        <v>6</v>
+      </c>
+      <c r="C16" s="24">
+        <v>42158</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="I16" s="21"/>
       <c r="J16" s="2"/>
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
+      <c r="B17" s="22">
+        <v>6</v>
+      </c>
+      <c r="C17" s="24">
+        <v>42159</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>74</v>
+      </c>
       <c r="I17" s="21"/>
       <c r="J17" s="2"/>
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
+      <c r="B18" s="22">
+        <v>6</v>
+      </c>
+      <c r="C18" s="27">
+        <v>42159</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="I18" s="21"/>
       <c r="J18" s="2"/>
       <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
+      <c r="B19" s="22">
+        <v>6</v>
+      </c>
+      <c r="C19" s="45">
+        <v>42160</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>49</v>
+      </c>
       <c r="I19" s="21"/>
       <c r="J19" s="2"/>
       <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="22">
+        <v>6</v>
+      </c>
+      <c r="C20" s="45">
+        <v>42160</v>
+      </c>
       <c r="D20" s="19"/>
       <c r="E20" s="22"/>
       <c r="F20" s="25"/>

--- a/trunk/ afgmx/AFGMX/ADMON_DEL_PROYECTO/BITACORAS/2015/CUAT_2_MAY_AGO/PARCIAL_2/BITACORA.xlsx
+++ b/trunk/ afgmx/AFGMX/ADMON_DEL_PROYECTO/BITACORAS/2015/CUAT_2_MAY_AGO/PARCIAL_2/BITACORA.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="88">
   <si>
     <t>UNIVERSIDAD TECNOLÓGICA DEL  CENTRO DE VERACRUZ
 TECNOLOGÍAS DE LA INFORMACIÓN Y COMUNICACIÓN
@@ -264,6 +264,33 @@
   </si>
   <si>
     <t>Se estuvo el ultimo dia dando platicas de dos proyectos incluido AgroFinderGround, y dando por cierre la participacion en dicho evento</t>
+  </si>
+  <si>
+    <t>Mejoras a la aplicación</t>
+  </si>
+  <si>
+    <t>Se termino de realizar las mejoras al sistema</t>
+  </si>
+  <si>
+    <t>Sistema</t>
+  </si>
+  <si>
+    <t>Reunion de equipo</t>
+  </si>
+  <si>
+    <t>Se realizo la reunion de equipo semanal para observar los avances</t>
+  </si>
+  <si>
+    <t>Reunion para realizar plan de comuinicacion</t>
+  </si>
+  <si>
+    <t>Plan de comunicación</t>
+  </si>
+  <si>
+    <t>Reunion semanal</t>
+  </si>
+  <si>
+    <t>Elaboracion de reportes que se utilizaran en la aplicación</t>
   </si>
 </sst>
 </file>
@@ -443,7 +470,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -522,6 +549,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="28">
     <border>
@@ -844,7 +877,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -908,18 +941,39 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -929,24 +983,6 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -956,8 +992,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1409,46 +1451,46 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="38"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="32"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="38"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="32"/>
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="38"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="32"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1471,13 +1513,13 @@
       <c r="C6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
@@ -1489,13 +1531,13 @@
       <c r="C7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
@@ -1507,13 +1549,13 @@
       <c r="C8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
@@ -1525,13 +1567,13 @@
       <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
@@ -1543,13 +1585,13 @@
       <c r="C10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="36">
         <v>1</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
@@ -1561,13 +1603,13 @@
       <c r="C11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
@@ -1593,11 +1635,11 @@
       <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -1609,13 +1651,13 @@
       <c r="C14" s="17">
         <v>1</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
@@ -1627,13 +1669,13 @@
       <c r="C15" s="17">
         <v>2</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
@@ -1645,13 +1687,13 @@
       <c r="C16" s="17">
         <v>3</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
@@ -1663,13 +1705,13 @@
       <c r="C17" s="17">
         <v>4</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
@@ -1681,11 +1723,11 @@
       <c r="C18" s="17">
         <v>5</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
@@ -1697,11 +1739,11 @@
       <c r="C19" s="17">
         <v>6</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
@@ -1723,11 +1765,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B2:K4"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D9:H9"/>
     <mergeCell ref="D16:H16"/>
     <mergeCell ref="D17:H17"/>
     <mergeCell ref="D18:H18"/>
@@ -1737,6 +1774,11 @@
     <mergeCell ref="D13:H13"/>
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="D15:H15"/>
+    <mergeCell ref="B2:K4"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1745,10 +1787,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1792,42 +1834,42 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45"/>
       <c r="J3" s="13"/>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="45"/>
       <c r="J4" s="13"/>
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="44"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="13"/>
       <c r="K5" s="6"/>
     </row>
@@ -2161,7 +2203,7 @@
       <c r="B19" s="22">
         <v>6</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="29">
         <v>42160</v>
       </c>
       <c r="D19" s="19" t="s">
@@ -2188,56 +2230,156 @@
       <c r="B20" s="22">
         <v>6</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="29">
         <v>42160</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
+      <c r="D20" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="I20" s="21"/>
       <c r="J20" s="2"/>
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
+      <c r="B21" s="22">
+        <v>7</v>
+      </c>
+      <c r="C21" s="29">
+        <v>42167</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>49</v>
+      </c>
       <c r="I21" s="21"/>
       <c r="J21" s="2"/>
       <c r="K21" s="11"/>
     </row>
     <row r="22" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
+      <c r="B22" s="22">
+        <v>8</v>
+      </c>
+      <c r="C22" s="29">
+        <v>42172</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>49</v>
+      </c>
       <c r="I22" s="21"/>
       <c r="J22" s="2"/>
       <c r="K22" s="11"/>
     </row>
     <row r="23" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
+      <c r="B23" s="22">
+        <v>9</v>
+      </c>
+      <c r="C23" s="29">
+        <v>42179</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>49</v>
+      </c>
       <c r="I23" s="21"/>
       <c r="J23" s="2"/>
       <c r="K23" s="11"/>
+    </row>
+    <row r="24" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="46">
+        <v>10</v>
+      </c>
+      <c r="C24" s="47">
+        <v>42187</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="48"/>
+    </row>
+    <row r="25" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="46">
+        <v>11</v>
+      </c>
+      <c r="C25" s="47">
+        <v>42193</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">
